--- a/report2.xlsx
+++ b/report2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\hidastreamlit_kh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B16AA-5414-4AB0-9D6B-125CED6EAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6987F1FC-A310-4C68-AA71-C90EFF6BCA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>御中</t>
   </si>
@@ -171,12 +171,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■ 月別販売員数</t>
+    <t>■ 月別年齢層推移</t>
     <rPh sb="2" eb="4">
       <t>ツキベツ</t>
     </rPh>
-    <rPh sb="4" eb="8">
-      <t>ハンバイインスウ</t>
+    <rPh sb="4" eb="7">
+      <t>ネンレイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ 月別販売者数推移</t>
+    <rPh sb="2" eb="4">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -870,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K593"/>
+  <dimension ref="A1:K632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="B591" sqref="B591"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="A633" sqref="A633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1978,38 +2000,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="14" t="s">
+    <row r="553" spans="1:1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D553" s="33" t="s">
+      <c r="D592" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E553"/>
-      <c r="G553" s="34" t="s">
+      <c r="E592"/>
+      <c r="G592" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H553"/>
-    </row>
-    <row r="554" spans="1:9" ht="2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="20"/>
-      <c r="B554" s="20"/>
-      <c r="C554" s="20"/>
-      <c r="D554" s="21"/>
-      <c r="E554" s="21"/>
-      <c r="F554" s="21"/>
-      <c r="G554" s="20"/>
-      <c r="H554" s="20"/>
-      <c r="I554" s="20"/>
-    </row>
-    <row r="572" spans="1:1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="32" t="s">
+      <c r="H592"/>
+    </row>
+    <row r="593" spans="1:9" ht="2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="20"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="20"/>
+      <c r="D593" s="21"/>
+      <c r="E593" s="21"/>
+      <c r="F593" s="21"/>
+      <c r="G593" s="20"/>
+      <c r="H593" s="20"/>
+      <c r="I593" s="20"/>
+    </row>
+    <row r="611" spans="1:1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="1:1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="32" t="s">
-        <v>31</v>
+    <row r="632" spans="1:1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
